--- a/Board Documents/BOM.xlsx
+++ b/Board Documents/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microchiptechnology-my.sharepoint.com/personal/gabriel_urs_microchip_com/Documents/work/Temp/PIC18F56Q71/RLC Meter Board Application/Release/Board Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microchiptechnology-my.sharepoint.com/personal/gabriel_urs_microchip_com/Documents/work/Temp/PIC18F56Q71/EBE Repos/pic18f56q71-rlc-meter-mplab-mcc/Board Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC10487D89DA69A25BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033C0024-7384-439C-94FB-759CEBFB4277}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4488" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,47 +458,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,7 +842,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,254 +857,254 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="11" t="str">
         <f>'[1]BOM Report'!C2</f>
         <v>**</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="3" t="str">
         <f>'[1]BOM Report'!B5</f>
         <v>EV**</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <f>'[1]BOM Report'!B3</f>
         <v>02-**</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <f>'[1]BOM Report'!B4</f>
         <v>04-**</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="3" t="str">
         <f>'[1]BOM Report'!B6</f>
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="6" t="str">
         <f>'[1]BOM Report'!B10</f>
         <v>11/5/2024</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="7"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1117,44 +1117,44 @@
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1167,16 +1167,16 @@
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="10">
         <v>505462</v>
       </c>
     </row>
